--- a/biology/Botanique/Bouillie_bourguignonne/Bouillie_bourguignonne.xlsx
+++ b/biology/Botanique/Bouillie_bourguignonne/Bouillie_bourguignonne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bouillie bourguignonne est un fongicide minéral à base cuprique, voisin de la bouillie bordelaise. Elle se compose de 20 % de sulfate de cuivre auxquels s'ajoutent 80 % de carbonate de sodium ou de bicarbonate de sodium.
-Dans les années 1950, un magazine donne les recettes de l'anti-mildiou[1]:
+Dans les années 1950, un magazine donne les recettes de l'anti-mildiou:
 « Faire dissoudre 2 kilogrammes de sulfate de cuivre dans 90 litres d'eau. Pour les non-professionnels, introduire le produit dans un petit sac en toile qu'on suspend à l'aide d'un bâton, le sac trempant dans l'eau.
 Dans un autre récipient, introduire 10 litres d'eau, puis 1 kilogramme de carbonate de soude liquide à 90°.
 Verser ensuite et lentement ce lait dans le premier récipient et agiter avec un bâton muni d'une croix à son extrémité. Vérifier la neutralité et ajouter un bon adhésif. Cette dernière bouillie ne se conserve pas, il faut donc l'employer aussitôt préparée. »
